--- a/biology/Zoologie/Réserve_spéciale_de_Beza_Mahafaly/Réserve_spéciale_de_Beza_Mahafaly.xlsx
+++ b/biology/Zoologie/Réserve_spéciale_de_Beza_Mahafaly/Réserve_spéciale_de_Beza_Mahafaly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9serve_sp%C3%A9ciale_de_Beza_Mahafaly</t>
+          <t>Réserve_spéciale_de_Beza_Mahafaly</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La réserve spéciale de Beza Mahafaly fait partie du réseau d'aires protégées de Madagascar. Créée par en 1986, elle couvre une superficie de 600 ha et est formée de deux parcelles distantes de 10 km.
 Elle abrite la seule forêt-galerie protégée malgache.
-La réserve est actuellement gérée par Madagascar National Parks, tel qu'une partie du financement est assurée par la Fondation pour les Aires Protégées et la Biodiversité de Madagascar (FAPBM[1]).
+La réserve est actuellement gérée par Madagascar National Parks, tel qu'une partie du financement est assurée par la Fondation pour les Aires Protégées et la Biodiversité de Madagascar (FAPBM).
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9serve_sp%C3%A9ciale_de_Beza_Mahafaly</t>
+          <t>Réserve_spéciale_de_Beza_Mahafaly</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est située à 35 km au nord-est de Betioky dans la région d'Atsimo-Andrefana.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9serve_sp%C3%A9ciale_de_Beza_Mahafaly</t>
+          <t>Réserve_spéciale_de_Beza_Mahafaly</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Mammifères</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cette réserve abrite en particulier des
 Lémurs catta.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9serve_sp%C3%A9ciale_de_Beza_Mahafaly</t>
+          <t>Réserve_spéciale_de_Beza_Mahafaly</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Oiseaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Elle abrite aussi de nombreuses espèces aviennes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Elle abrite aussi de nombreuses espèces aviennes :
 Bihoreau gris
 Crabier chevelu
 Héron garde-bœufs
